--- a/localized/en-us/games/books/bookdata/en_339/en_339.xlsx
+++ b/localized/en-us/games/books/bookdata/en_339/en_339.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunpah/Documents/Books/en/en_339/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLEXP-Team-KitkitSchool-Hindi-Assets-MainApp\localized\en-us\games\books\bookdata\en_339\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E60CB5-F2DA-F94C-920D-50438241BD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF002EA-210E-4E3E-BD00-9E556D97D6DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="1940" windowWidth="17100" windowHeight="18840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,25 +33,25 @@
     <t>Building Signs</t>
   </si>
   <si>
-    <t>Hamisi took a bus to the city.</t>
-  </si>
-  <si>
-    <t>Hamisi saw signs outside the buildings.</t>
-  </si>
-  <si>
-    <t>Reading helped Hamisi know what all the buildings were.</t>
-  </si>
-  <si>
-    <t>Hamisi read a sign that said “POLICE.”</t>
-  </si>
-  <si>
-    <t>Hamisi read a sign that said “SCHOOL.”</t>
-  </si>
-  <si>
-    <t>Hamisi read a sign that said “HOTEL.”</t>
-  </si>
-  <si>
-    <t>Hamisi read a sign that said “HOSPITAL.”</t>
+    <t>Akash took a bus to the city.</t>
+  </si>
+  <si>
+    <t>Akash saw signs outside the buildings.</t>
+  </si>
+  <si>
+    <t>Akash read a sign that said “POLICE.”</t>
+  </si>
+  <si>
+    <t>Akash read a sign that said “SCHOOL.”</t>
+  </si>
+  <si>
+    <t>Akash read a sign that said “HOTEL.”</t>
+  </si>
+  <si>
+    <t>Akash read a sign that said “HOSPITAL.”</t>
+  </si>
+  <si>
+    <t>Reading helped Akash know what all the buildings were.</t>
   </si>
 </sst>
 </file>
@@ -372,49 +372,49 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="A4" sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
